--- a/uploads/track/zkmzhox2t.xlsx
+++ b/uploads/track/zkmzhox2t.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>mobile</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>9662497112</t>
+  </si>
+  <si>
+    <t>7383211888</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -422,6 +425,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/uploads/track/zkmzhox2t.xlsx
+++ b/uploads/track/zkmzhox2t.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>mobile</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -430,6 +430,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/uploads/track/zkmzhox2t.xlsx
+++ b/uploads/track/zkmzhox2t.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>mobile</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -495,6 +495,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/uploads/track/zkmzhox2t.xlsx
+++ b/uploads/track/zkmzhox2t.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>mobile</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -505,6 +505,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
